--- a/Project Planning/Detailed Planning.xlsx
+++ b/Project Planning/Detailed Planning.xlsx
@@ -539,7 +539,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
